--- a/xlsx/固定翼机_intext.xlsx
+++ b/xlsx/固定翼机_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>固定翼机</t>
   </si>
@@ -29,7 +29,7 @@
     <t>滑翔机</t>
   </si>
   <si>
-    <t>政策_政策_美國_固定翼机</t>
+    <t>政策_政策_美国_固定翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E7%A9%BA%E5%86%9B</t>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/An-124%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>An-124運輸機</t>
+    <t>An-124运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>蘇聯空軍</t>
+    <t>苏联空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>國籍標誌</t>
+    <t>国籍标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96-95</t>
   </si>
   <si>
-    <t>圖-95</t>
+    <t>图-95</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
+    <t>美国空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-52%E5%90%8C%E6%BA%AB%E5%B1%A4%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-52同溫層堡壘轟炸機</t>
+    <t>B-52同温层堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E7%BF%BC</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E5%A4%AA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國航太總署</t>
+    <t>美国航太总署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Armstrong_Flight_Research_Center</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/F-15_S/MTD%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15 S/MTD試驗機</t>
+    <t>F-15 S/MTD试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SR-71%E9%BB%91%E9%B3%A5%E5%BC%8F%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>SR-71黑鳥式偵察機</t>
+    <t>SR-71黑鸟式侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-106%E4%B8%89%E8%A7%92%E6%A0%87%E6%9E%AA%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/X-38%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-38試驗機</t>
+    <t>X-38试验机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McDonnell_Douglas_X-36</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A3%9E%E6%9C%BA%E5%85%AC%E5%8F%B8</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89-225%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>安-225運輸機</t>
+    <t>安-225运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%AE%A2%E8%BD%A6A380</t>
@@ -305,9 +305,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%BF%BC</t>
   </si>
   <si>
-    <t>機翼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E8%BA%AB</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%BE%E6%B5%81%E6%9D%BF</t>
   </si>
   <si>
-    <t>擾流板</t>
+    <t>扰流板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E8%90%BD</t>
@@ -377,31 +374,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪引擎</t>
+    <t>涡轮引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%80%E8%A4%87%E5%BC%8F%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>往複式引擎</t>
+    <t>往复式引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%99%B4%E5%B0%84%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪噴射引擎</t>
+    <t>涡轮喷射引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%9E%BA%E6%97%8B%E6%A7%B3%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪螺旋槳引擎</t>
+    <t>涡轮螺旋桨引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E6%89%87%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>渦輪扇引擎</t>
+    <t>涡轮扇引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E9%9B%B2</t>
   </si>
   <si>
-    <t>飛機雲</t>
+    <t>飞机云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>水上飛機</t>
+    <t>水上飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E5%BA%A6</t>
@@ -467,9 +464,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E9%A3%9E%E6%9C%BA</t>
   </si>
   <si>
-    <t>水上飞机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/X-1%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-1試驗機</t>
+    <t>X-1试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/X-2%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-2試驗機</t>
+    <t>X-2试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3777</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%A2%A8%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>雪梨機場</t>
+    <t>雪梨机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%B7%B4%E5%A3%ABA380</t>
@@ -647,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/An-225%E5%A4%A2%E6%83%B3%E5%BC%8F%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>An-225夢想式運輸機</t>
+    <t>An-225梦想式运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%99%B8</t>
   </si>
   <si>
-    <t>公噸</t>
+    <t>公吨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A380</t>
@@ -683,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>協和飛機</t>
+    <t>协和飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%9A%AA%E5%AE%B6</t>
   </si>
   <si>
-    <t>探險家</t>
+    <t>探险家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%89%B9%E6%9C%97%C2%B7%E7%9A%AE%E5%8D%A1%E5%B0%94</t>
@@ -725,19 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動飛機</t>
+    <t>电动飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E5%85%89%E5%8B%95%E5%8A%9B%E8%99%9F</t>
   </si>
   <si>
-    <t>陽光動力號</t>
+    <t>阳光动力号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合酋長國</t>
+    <t>阿拉伯联合酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%B8%AB</t>
   </si>
   <si>
-    <t>機師</t>
+    <t>机师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Van%27s_Aircraft_RV-8</t>
@@ -767,49 +761,46 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%B5%B7%E9%A3%9B</t>
   </si>
   <si>
-    <t>香港起飛</t>
+    <t>香港起飞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>香港國際機場</t>
+    <t>香港国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%B8%AF</t>
   </si>
   <si>
-    <t>維多利亞港</t>
+    <t>维多利亚港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%B3%80%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>加賀號航空母艦</t>
+    <t>加贺号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E9%B1%BC%E5%BC%8F%E9%B1%BC%E9%9B%B7%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/P-38%E9%96%83%E9%9B%BB%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-38閃電式戰鬥機</t>
+    <t>P-38闪电式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E6%B0%94%E7%90%83</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器列表</t>
+    <t>飞行器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%89%B9%E9%A3%9E%E8%A1%8C%E5%99%A8</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>單翼機</t>
+    <t>单翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%BF%BC%E6%9C%BA</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B%E6%A7%B3%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>螺旋槳飛機</t>
+    <t>螺旋桨飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%B7%E6%B0%94%E5%BC%8F%E9%A3%9E%E6%9C%BA</t>
@@ -899,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%8E%A0%E7%BF%BC</t>
   </si>
   <si>
-    <t>後掠翼</t>
+    <t>后掠翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AE%8A%E5%BE%8C%E6%8E%A0%E7%BF%BC</t>
   </si>
   <si>
-    <t>可變後掠翼</t>
+    <t>可变后掠翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E7%BF%BC</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B7%A3</t>
   </si>
   <si>
-    <t>後緣</t>
+    <t>后缘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E5%B1%95</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%B8%E7%B8%AE%E6%AF%94</t>
   </si>
   <si>
-    <t>漸縮比</t>
+    <t>渐缩比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A0%E8%A7%92</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A7%E5%BA%A6_(%E7%A9%BA%E6%B0%A3%E5%8B%95%E5%8A%9B%E5%AD%B8)</t>
   </si>
   <si>
-    <t>弧度 (空氣動力學)</t>
+    <t>弧度 (空气动力学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E5%9E%8B</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E6%B5%81%E7%BF%BC</t>
   </si>
   <si>
-    <t>層流翼</t>
+    <t>层流翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NACA%E7%BF%BC%E5%9E%8B</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E9%8C%90</t>
   </si>
   <si>
-    <t>鼻錐</t>
+    <t>鼻锥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E8%BA%AB%E8%9E%8D%E5%90%88</t>
@@ -1049,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E5%8D%87%E9%AB%94</t>
   </si>
   <si>
-    <t>舉升體</t>
+    <t>举升体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%A1%9E%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -1061,13 +1052,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%9E%BA%E6%97%8B%E6%A7%B3%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪螺旋槳發動機</t>
+    <t>涡轮螺旋桨发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%BB%B8%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪軸發動機</t>
+    <t>涡轮轴发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%B7%E6%B0%94%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E9%87%8F%E5%99%B4%E5%98%B4</t>
   </si>
   <si>
-    <t>向量噴嘴</t>
+    <t>向量喷嘴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E7%87%83%E6%B2%B9</t>
@@ -1169,13 +1160,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%93%A1</t>
   </si>
   <si>
-    <t>飛行員</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%84%80%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行儀表</t>
+    <t>飞行仪表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E9%A3%9E%E8%A1%8C%E4%BB%AA%E8%A1%A8%E7%B3%BB%E7%BB%9F</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AC%E9%A0%AD%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>抬頭顯示器</t>
+    <t>抬头显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%AA%E8%A1%A8%E7%9D%80%E9%99%86%E7%B3%BB%E7%BB%9F</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E8%B7%9D%E5%84%80</t>
   </si>
   <si>
-    <t>測距儀</t>
+    <t>测距仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9A%E9%AB%98%E9%A2%91%E5%85%A8%E5%90%91%E4%BF%A1%E6%A0%87</t>
@@ -1217,31 +1205,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>飛行管理系統</t>
+    <t>飞行管理系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E9%A7%95%E9%A7%9B</t>
   </si>
   <si>
-    <t>自動駕駛</t>
+    <t>自动驾驶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>飛行力學</t>
+    <t>飞行力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E5%82%B3%E9%A3%9B%E6%8E%A7</t>
   </si>
   <si>
-    <t>線傳飛控</t>
+    <t>线传飞控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E8%A6%96%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>目視飛行</t>
+    <t>目视飞行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%AA%E8%A1%A8%E9%A3%9E%E8%A1%8C</t>
@@ -1301,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E8%BF%AB%E8%BF%91%E8%AD%A6%E5%91%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地面迫近警告系統</t>
+    <t>地面迫近警告系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E8%A1%8C%E7%87%88</t>
   </si>
   <si>
-    <t>航行燈</t>
+    <t>航行灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%A1%8C%E8%AE%B0%E5%BD%95%E5%99%A8</t>
@@ -1319,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E5%B0%84%E6%A4%85</t>
   </si>
   <si>
-    <t>彈射椅</t>
+    <t>弹射椅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%88%97%E8%A1%A8%E9%9B%86</t>
@@ -1355,13 +1343,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E8%A3%BD%E9%80%A0%E5%95%86%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器製造商列表</t>
+    <t>飞行器制造商列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>旋翼機</t>
+    <t>旋翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%8D%9A%E7%89%A9%E9%A6%86%E5%88%97%E8%A1%A8</t>
@@ -1385,31 +1373,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%A7%8B%E5%AE%A2%E6%88%B6</t>
   </si>
   <si>
-    <t>啟始客戶</t>
+    <t>启始客户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E5%AE%A2%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>噴射客機列表</t>
+    <t>喷射客机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>貨機列表</t>
+    <t>货机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E6%AD%87%E6%A5%AD%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>已歇業航空公司列表</t>
+    <t>已歇业航空公司列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%81%8B%E8%BC%B8%E5%8D%94%E6%9C%83%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際航空運輸協會航空公司代碼</t>
+    <t>国际航空运输协会航空公司代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E9%83%A8%E9%97%A8%E5%88%97%E8%A1%A8</t>
@@ -1421,13 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>軍用航空</t>
+    <t>军用航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>空軍列表</t>
+    <t>空军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
@@ -1439,19 +1427,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E8%88%AA%E7%A9%BA%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>無人航空載具</t>
+    <t>无人航空载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>試驗機</t>
+    <t>试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E7%BE%8E%E5%9C%8B%E4%B8%89%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%99%A8%E5%91%BD%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>1962美國三軍航空器命名系統</t>
+    <t>1962美国三军航空器命名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%B8%89%E5%86%9B%E5%AF%BC%E5%BC%B9%E5%8F%8A%E6%97%A0%E4%BA%BA%E6%9C%BA%E5%91%BD%E5%90%8D%E7%B3%BB%E7%BB%9F</t>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E5%99%A8%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>英國軍用航空器序號</t>
+    <t>英国军用航空器序号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
@@ -1475,43 +1463,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天機構列表</t>
+    <t>航天机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%A9%BF%E6%A2%AD%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空穿梭機列表</t>
+    <t>太空穿梭机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭列表</t>
+    <t>运载火箭列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E4%B8%8A%E9%9D%A2%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭上面級列表</t>
+    <t>运载火箭上面级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E7%B3%BB%E5%88%97%E5%AE%87%E5%AE%99%E9%A3%9B%E8%88%B9%E7%99%BC%E5%B0%84%E4%BB%BB%E5%8B%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯盟系列宇宙飛船發射任務列表</t>
+    <t>联盟系列宇宙飞船发射任务列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8_(1965%E5%B9%B4%E8%87%B31999%E5%B9%B4)</t>
   </si>
   <si>
-    <t>艙外活動列表 (1965年至1999年)</t>
+    <t>舱外活动列表 (1965年至1999年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%99%9F%E5%A4%AA%E7%A9%BA%E7%AB%99%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>禮炮號太空站艙外活動列表</t>
+    <t>礼炮号太空站舱外活动列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA2000%E5%B9%B4%E7%9A%84%E8%88%B1%E5%A4%96%E6%B4%BB%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -1529,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%81%8A%E5%AE%A2</t>
   </si>
   <si>
-    <t>太空遊客</t>
+    <t>太空游客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%8B%E6%95%85</t>
@@ -1547,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E9%A3%9B%E6%A9%9F%E7%A9%BA%E9%9B%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>軍用飛機空難列表</t>
+    <t>军用飞机空难列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E6%88%90%E8%87%B3%E5%B0%9150%E4%BA%BA%E6%AD%BB%E4%BA%A1%E7%9A%84%E7%A9%BA%E9%9A%BE%E5%88%97%E8%A1%A8</t>
@@ -1559,31 +1547,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E8%A8%98%E9%8C%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天記錄列表</t>
+    <t>航天记录列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E9%80%9F%E5%BA%A6%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行速度記錄</t>
+    <t>飞行速度记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E8%B7%9D%E9%9B%A2%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行距離記錄</t>
+    <t>飞行距离记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E6%9C%80%E9%AB%98%E8%A3%BD%E9%80%A0%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛機最高製造數量列表</t>
+    <t>飞机最高制造数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3332,7 +3320,7 @@
         <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3358,10 +3346,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3387,10 +3375,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>14</v>
@@ -3416,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3445,10 +3433,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3474,10 +3462,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3503,10 +3491,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3532,10 +3520,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3561,10 +3549,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3590,10 +3578,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3619,10 +3607,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3648,10 +3636,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3677,10 +3665,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3706,10 +3694,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3735,10 +3723,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3764,10 +3752,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3793,10 +3781,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3822,10 +3810,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>8</v>
@@ -3851,10 +3839,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3880,10 +3868,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3909,10 +3897,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3938,10 +3926,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3967,10 +3955,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>13</v>
@@ -3996,10 +3984,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>14</v>
@@ -4025,10 +4013,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4054,10 +4042,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -4083,10 +4071,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4112,10 +4100,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4141,10 +4129,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4170,10 +4158,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4199,10 +4187,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4228,10 +4216,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4257,10 +4245,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4286,10 +4274,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4315,10 +4303,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4344,10 +4332,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4373,10 +4361,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4402,10 +4390,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4431,10 +4419,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4489,10 +4477,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -4518,10 +4506,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4547,10 +4535,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4576,10 +4564,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -4605,10 +4593,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4634,10 +4622,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4663,10 +4651,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4692,10 +4680,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4721,10 +4709,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4750,10 +4738,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4779,10 +4767,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4808,10 +4796,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4837,10 +4825,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4866,10 +4854,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4895,10 +4883,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4924,10 +4912,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4953,10 +4941,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4982,10 +4970,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5011,10 +4999,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -5040,10 +5028,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5069,10 +5057,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5098,10 +5086,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5127,10 +5115,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5156,10 +5144,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5185,10 +5173,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5214,10 +5202,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5243,10 +5231,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5272,10 +5260,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5301,10 +5289,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5330,10 +5318,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5359,10 +5347,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5388,10 +5376,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5417,10 +5405,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5446,10 +5434,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5475,10 +5463,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5504,10 +5492,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -5533,10 +5521,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5562,10 +5550,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5591,10 +5579,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5620,10 +5608,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5649,10 +5637,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5678,10 +5666,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="G129" t="n">
         <v>6</v>
@@ -5707,10 +5695,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5736,10 +5724,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5765,10 +5753,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5794,10 +5782,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5823,10 +5811,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5852,10 +5840,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5881,10 +5869,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5910,10 +5898,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5939,10 +5927,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -5968,10 +5956,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5997,10 +5985,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6026,10 +6014,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6055,10 +6043,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6084,10 +6072,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6113,10 +6101,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6142,10 +6130,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6171,10 +6159,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6200,10 +6188,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6229,10 +6217,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6258,10 +6246,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6287,10 +6275,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6316,10 +6304,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6345,10 +6333,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6374,10 +6362,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6403,10 +6391,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6432,10 +6420,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6461,10 +6449,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6490,10 +6478,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6519,10 +6507,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6548,10 +6536,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6577,10 +6565,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6606,10 +6594,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6635,10 +6623,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6664,10 +6652,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6693,10 +6681,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6722,10 +6710,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6751,10 +6739,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6780,10 +6768,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6809,10 +6797,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6838,10 +6826,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6867,10 +6855,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -6896,10 +6884,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>96</v>
+      </c>
+      <c r="F171" t="s">
         <v>97</v>
-      </c>
-      <c r="F171" t="s">
-        <v>98</v>
       </c>
       <c r="G171" t="n">
         <v>6</v>
@@ -6925,10 +6913,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6954,10 +6942,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6983,10 +6971,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7012,10 +7000,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>116</v>
+      </c>
+      <c r="F175" t="s">
         <v>117</v>
-      </c>
-      <c r="F175" t="s">
-        <v>118</v>
       </c>
       <c r="G175" t="n">
         <v>19</v>
@@ -7041,10 +7029,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7070,10 +7058,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7099,10 +7087,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7128,10 +7116,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7157,10 +7145,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7186,10 +7174,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7215,10 +7203,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7244,10 +7232,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7273,10 +7261,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7302,10 +7290,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>7</v>
@@ -7331,10 +7319,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7360,10 +7348,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7389,10 +7377,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7418,10 +7406,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7447,10 +7435,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7476,10 +7464,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7505,10 +7493,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7534,10 +7522,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7563,10 +7551,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7592,10 +7580,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7621,10 +7609,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7650,10 +7638,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7679,10 +7667,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7708,10 +7696,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7737,10 +7725,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7766,10 +7754,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7795,10 +7783,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7824,10 +7812,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7853,10 +7841,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7882,10 +7870,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>130</v>
+      </c>
+      <c r="F205" t="s">
         <v>131</v>
-      </c>
-      <c r="F205" t="s">
-        <v>132</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -7911,10 +7899,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7940,10 +7928,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7969,10 +7957,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7998,10 +7986,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8027,10 +8015,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8056,10 +8044,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8085,10 +8073,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8114,10 +8102,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8143,10 +8131,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8172,10 +8160,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8201,10 +8189,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8230,10 +8218,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8259,10 +8247,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8288,10 +8276,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8317,10 +8305,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8346,10 +8334,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8375,10 +8363,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>5</v>
@@ -8404,10 +8392,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -8433,10 +8421,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>40</v>
@@ -8462,10 +8450,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>8</v>
@@ -8491,10 +8479,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8520,10 +8508,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F227" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -8549,10 +8537,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8578,10 +8566,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>116</v>
+      </c>
+      <c r="F229" t="s">
         <v>117</v>
-      </c>
-      <c r="F229" t="s">
-        <v>118</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8607,10 +8595,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8636,10 +8624,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8665,10 +8653,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8694,10 +8682,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8723,10 +8711,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8752,10 +8740,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8781,10 +8769,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8810,10 +8798,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8839,10 +8827,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8868,10 +8856,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8897,10 +8885,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -8926,10 +8914,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>7</v>
@@ -8955,10 +8943,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -8984,10 +8972,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9013,10 +9001,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>4</v>
@@ -9042,10 +9030,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9071,10 +9059,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9100,10 +9088,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9129,10 +9117,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9158,10 +9146,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9187,10 +9175,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9216,10 +9204,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9245,10 +9233,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9274,10 +9262,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9303,10 +9291,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9332,10 +9320,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9361,10 +9349,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9390,10 +9378,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9419,10 +9407,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9448,10 +9436,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9477,10 +9465,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9506,10 +9494,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9535,10 +9523,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9564,10 +9552,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9593,10 +9581,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9622,10 +9610,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9651,10 +9639,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9680,10 +9668,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -9709,10 +9697,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9738,10 +9726,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>12</v>
@@ -9767,10 +9755,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
